--- a/Travel agency database.xlsx
+++ b/Travel agency database.xlsx
@@ -245,7 +245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -363,18 +369,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -393,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,16 +421,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,27 +776,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="47"/>
+      <c r="D1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12"/>
-      <c r="K1" s="11" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+      <c r="K1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="47"/>
+      <c r="N1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="12"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -798,57 +814,57 @@
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="K3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="21">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -857,39 +873,39 @@
       <c r="G4" s="5">
         <v>41435</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="16">
         <v>5</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>6</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="21">
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="26">
-        <v>1</v>
-      </c>
-      <c r="O4" s="20">
-        <v>4</v>
-      </c>
-      <c r="P4" s="21">
+      <c r="N4" s="21">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>4</v>
+      </c>
+      <c r="P4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="21">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -898,39 +914,39 @@
       <c r="G5" s="5">
         <v>41588</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="16">
         <v>10</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <v>11</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="21">
         <v>2</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="26">
-        <v>2</v>
-      </c>
-      <c r="O5" s="20">
-        <v>4</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="N5" s="21">
+        <v>2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>4</v>
+      </c>
+      <c r="P5" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="26">
-        <v>3</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="21">
+        <v>3</v>
+      </c>
+      <c r="E6" s="16">
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -939,74 +955,74 @@
       <c r="G6" s="5">
         <v>41435</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>10</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>11</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="21">
         <v>3</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="26">
-        <v>3</v>
-      </c>
-      <c r="O6" s="20">
-        <v>2</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="N6" s="21">
+        <v>3</v>
+      </c>
+      <c r="O6" s="16">
+        <v>2</v>
+      </c>
+      <c r="P6" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26">
-        <v>4</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="21">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="5">
         <v>41562</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="16">
         <v>7</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="17">
         <v>8</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="21">
         <v>4</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="26">
-        <v>4</v>
-      </c>
-      <c r="O7" s="20">
-        <v>2</v>
-      </c>
-      <c r="P7" s="21">
+      <c r="N7" s="21">
+        <v>4</v>
+      </c>
+      <c r="O7" s="16">
+        <v>2</v>
+      </c>
+      <c r="P7" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="28">
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="22">
         <v>3</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1015,50 +1031,50 @@
       <c r="G8" s="9">
         <v>41557</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="22">
         <v>8</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="24">
         <v>9</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="23">
         <v>5</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="33">
+      <c r="N8" s="28">
         <v>5</v>
       </c>
-      <c r="O8" s="34">
-        <v>4</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="O8" s="29">
+        <v>4</v>
+      </c>
+      <c r="P8" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-      <c r="M12" s="11" t="s">
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="M12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="15"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1089,48 +1105,48 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="H14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="19" t="s">
+      <c r="M14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="4"/>
@@ -1161,7 +1177,7 @@
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="31">
         <v>1</v>
       </c>
       <c r="L15" s="4"/>
@@ -1174,7 +1190,7 @@
       <c r="O15" s="4">
         <v>1</v>
       </c>
-      <c r="P15" s="38">
+      <c r="P15" s="33">
         <v>41548</v>
       </c>
       <c r="Q15" s="4"/>
@@ -1205,20 +1221,20 @@
       <c r="J16" s="8">
         <v>2</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="32">
         <v>2</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="39">
-        <v>2</v>
-      </c>
-      <c r="N16" s="14">
-        <v>4</v>
-      </c>
-      <c r="O16" s="14">
+      <c r="M16" s="34">
+        <v>2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>4</v>
+      </c>
+      <c r="O16" s="11">
         <v>12</v>
       </c>
-      <c r="P16" s="38">
+      <c r="P16" s="33">
         <v>41551</v>
       </c>
       <c r="Q16" s="4"/>
@@ -1245,16 +1261,16 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="40">
-        <v>3</v>
-      </c>
-      <c r="N17" s="41">
-        <v>3</v>
-      </c>
-      <c r="O17" s="41">
-        <v>1</v>
-      </c>
-      <c r="P17" s="42">
+      <c r="M17" s="35">
+        <v>3</v>
+      </c>
+      <c r="N17" s="36">
+        <v>3</v>
+      </c>
+      <c r="O17" s="36">
+        <v>1</v>
+      </c>
+      <c r="P17" s="37">
         <v>41395</v>
       </c>
       <c r="Q17" s="4"/>
@@ -1325,155 +1341,155 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="21"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="24"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="4"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="6"/>
+      <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>2</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="45"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="11" t="s">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="F31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12"/>
-      <c r="K31" s="11" t="s">
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="K31" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1484,40 +1500,40 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="51" t="s">
+      <c r="F33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="51" t="s">
+      <c r="H33" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L33" s="51" t="s">
+      <c r="K33" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="41" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1525,7 +1541,7 @@
       <c r="A34" s="3">
         <v>1</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="4">
@@ -1543,7 +1559,7 @@
       <c r="H34" s="4">
         <v>1</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="43">
         <v>80000</v>
       </c>
       <c r="K34" s="3">
@@ -1563,7 +1579,7 @@
       <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="4">
@@ -1581,7 +1597,7 @@
       <c r="H35" s="4">
         <v>2</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="44">
         <v>113500</v>
       </c>
       <c r="K35" s="3">
@@ -1601,7 +1617,7 @@
       <c r="A36" s="3">
         <v>3</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="38" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="4">
@@ -1639,7 +1655,7 @@
       <c r="A37" s="3">
         <v>4</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="38" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="4">
@@ -1677,7 +1693,7 @@
       <c r="A38" s="7">
         <v>5</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="8">
@@ -1703,21 +1719,25 @@
       <c r="M38" s="8"/>
       <c r="N38" s="10"/>
     </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I45" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A23:Q23"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="F31:I31"/>
     <mergeCell ref="K31:N31"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="M12:P12"/>
-    <mergeCell ref="B27:Q27"/>
     <mergeCell ref="B26:J26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="B27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
